--- a/results/epsilon/chungtoi/ChungToi_EpsilonResults_160kTrainingGames_10kTestGames.xlsx
+++ b/results/epsilon/chungtoi/ChungToi_EpsilonResults_160kTrainingGames_10kTestGames.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="6840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChungToi_EpsilonResults_160000G" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
+    <sheet name="Graph (no title)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2566,11 +2567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193610112"/>
-        <c:axId val="193612032"/>
+        <c:axId val="241562752"/>
+        <c:axId val="241564672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193610112"/>
+        <c:axId val="241562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193612032"/>
+        <c:crossAx val="241564672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2609,7 +2610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193612032"/>
+        <c:axId val="241564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2640,7 +2641,2024 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193610112"/>
+        <c:crossAx val="241562752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Win</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.38340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66679999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63759999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.61860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.59660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.59930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6028</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.58950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.59189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.56820000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.57779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5736</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.54420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.53710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5323</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.52210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50470000000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.51270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.50849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.49719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.49709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.49130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.48730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.4899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.4733</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48259999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.46189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.46810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4582</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.44359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.44069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.43490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.42449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4173</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4148</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41010000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.41189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2248</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2213</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2266</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.22470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.25090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2616</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2462</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.27089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2621</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2611</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2611</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2787</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2772</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.28339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.29249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.29070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.30459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.30959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.31909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.32150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.31690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.3241</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33189999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.32819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.33639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.33810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.34039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.35370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.34639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.34949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.35489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.34839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.3609</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.36120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.3654</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.36459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.37940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.37940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.38119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.37559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.38469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.38950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.39450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.39510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.40539999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.41089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.40679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.41039999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Draw</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChungToi_EpsilonResults_160000G!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.20469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1026</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1075</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1085</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8699999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1047</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1114</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1086</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1056</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1081</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1144</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.11210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1177</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.11119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1195</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1182</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1142</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1138</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1174</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1226</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.1179</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.1222</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.12379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1208</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.13320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.13089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1265</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.13170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1341</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.14149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.13370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1482</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1416</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.1409</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1479</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1545</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.14779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1515</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.15210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.1573</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.15759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.15690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.1598</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.16589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.16689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1648</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1701</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.17180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.1784</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.17949999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="165726080"/>
+        <c:axId val="165736448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165726080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165736448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165736448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165726080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2663,6 +4681,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5961,6 +8016,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
